--- a/outputs-HGR-r202/test-g__Faecalimonas_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Faecalimonas_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -152,14 +152,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,42 +190,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -256,353 +260,353 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.076049206812711212</v>
+        <v>0.1670754238600399</v>
       </c>
       <c r="C3">
-        <v>2.2444723579971423e-14</v>
+        <v>2.3178424404528751e-14</v>
       </c>
       <c r="D3">
-        <v>0.74344568586006521</v>
+        <v>0.0065046062119462145</v>
       </c>
       <c r="E3">
-        <v>0.11381320612136279</v>
+        <v>0.00050688763365266021</v>
       </c>
       <c r="F3">
-        <v>0.051052987932670366</v>
+        <v>0.068601420312502118</v>
       </c>
       <c r="G3">
-        <v>0.0013224651063561878</v>
+        <v>0.71988294655667417</v>
       </c>
       <c r="H3">
-        <v>0.00021662439385433728</v>
+        <v>6.7836051574708567e-05</v>
       </c>
       <c r="I3">
-        <v>0.01368937687933568</v>
+        <v>0.03663381798684659</v>
       </c>
       <c r="J3">
-        <v>0.00041044689362175241</v>
+        <v>0.00072706138674033549</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1670754238600399</v>
+        <v>0.037749030820172787</v>
       </c>
       <c r="C4">
-        <v>2.3178424404528751e-14</v>
+        <v>2.2337659388072459e-14</v>
       </c>
       <c r="D4">
-        <v>0.0065046062119462145</v>
+        <v>0.856280969070086</v>
       </c>
       <c r="E4">
-        <v>0.00050688763365266021</v>
+        <v>0.034074848127919471</v>
       </c>
       <c r="F4">
-        <v>0.068601420312502118</v>
+        <v>0.066668494883548049</v>
       </c>
       <c r="G4">
-        <v>0.71988294655667417</v>
+        <v>0.0003949177955058456</v>
       </c>
       <c r="H4">
-        <v>6.7836051574708567e-05</v>
+        <v>0.00075423637266716615</v>
       </c>
       <c r="I4">
-        <v>0.03663381798684659</v>
+        <v>0.0039058860573382499</v>
       </c>
       <c r="J4">
-        <v>0.00072706138674033549</v>
+        <v>0.0001716168727400868</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.06684710460860685</v>
+      </c>
+      <c r="C5">
+        <v>2.2333807775483513e-14</v>
+      </c>
+      <c r="D5">
+        <v>0.86416665458519326</v>
+      </c>
+      <c r="E5">
+        <v>0.032825035352286876</v>
+      </c>
+      <c r="F5">
+        <v>0.022009399681767985</v>
+      </c>
+      <c r="G5">
+        <v>0.00020845312966662248</v>
+      </c>
+      <c r="H5">
+        <v>0.0068869503730853033</v>
+      </c>
+      <c r="I5">
+        <v>0.0068453584823108841</v>
+      </c>
+      <c r="J5">
+        <v>0.00021104378705997661</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.12531001926945337</v>
+      </c>
+      <c r="C6">
+        <v>2.2373286697717849e-14</v>
+      </c>
+      <c r="D6">
+        <v>0.62652241726334645</v>
+      </c>
+      <c r="E6">
+        <v>0.1973510010904205</v>
+      </c>
+      <c r="F6">
+        <v>0.038189092909193131</v>
+      </c>
+      <c r="G6">
+        <v>0.0063471581108102658</v>
+      </c>
+      <c r="H6">
+        <v>0.00013256290356155432</v>
+      </c>
+      <c r="I6">
+        <v>0.0055409257197105363</v>
+      </c>
+      <c r="J6">
+        <v>0.00060682273348177111</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.066395731512308126</v>
+      </c>
+      <c r="C7">
+        <v>2.2385175422867889e-14</v>
+      </c>
+      <c r="D7">
+        <v>0.59956451179361825</v>
+      </c>
+      <c r="E7">
+        <v>0.25359290862683231</v>
+      </c>
+      <c r="F7">
+        <v>0.068460068016551912</v>
+      </c>
+      <c r="G7">
+        <v>0.0031959781046828803</v>
+      </c>
+      <c r="H7">
+        <v>0.00017521812785317763</v>
+      </c>
+      <c r="I7">
+        <v>0.008158398429993257</v>
+      </c>
+      <c r="J7">
+        <v>0.00045718538813768793</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.18075935046527991</v>
+      </c>
+      <c r="C8">
+        <v>0.09156101225395398</v>
+      </c>
+      <c r="D8">
+        <v>0.020761712162923104</v>
+      </c>
+      <c r="E8">
+        <v>0.00635004597218582</v>
+      </c>
+      <c r="F8">
+        <v>0.059159149566322553</v>
+      </c>
+      <c r="G8">
+        <v>0.61674729257922756</v>
+      </c>
+      <c r="H8">
+        <v>0.0057851675621516802</v>
+      </c>
+      <c r="I8">
+        <v>0.012915390488822669</v>
+      </c>
+      <c r="J8">
+        <v>0.0059608789491329304</v>
+      </c>
+      <c r="K8">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.037749030820172787</v>
-      </c>
-      <c r="C5">
-        <v>2.2337659388072459e-14</v>
-      </c>
-      <c r="D5">
-        <v>0.856280969070086</v>
-      </c>
-      <c r="E5">
-        <v>0.034074848127919471</v>
-      </c>
-      <c r="F5">
-        <v>0.066668494883548049</v>
-      </c>
-      <c r="G5">
-        <v>0.0003949177955058456</v>
-      </c>
-      <c r="H5">
-        <v>0.00075423637266716615</v>
-      </c>
-      <c r="I5">
-        <v>0.0039058860573382499</v>
-      </c>
-      <c r="J5">
-        <v>0.0001716168727400868</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.06684710460860685</v>
-      </c>
-      <c r="C6">
-        <v>2.2333807775483513e-14</v>
-      </c>
-      <c r="D6">
-        <v>0.86416665458519326</v>
-      </c>
-      <c r="E6">
-        <v>0.032825035352286876</v>
-      </c>
-      <c r="F6">
-        <v>0.022009399681767985</v>
-      </c>
-      <c r="G6">
-        <v>0.00020845312966662248</v>
-      </c>
-      <c r="H6">
-        <v>0.0068869503730853033</v>
-      </c>
-      <c r="I6">
-        <v>0.0068453584823108841</v>
-      </c>
-      <c r="J6">
-        <v>0.00021104378705997661</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.070736413918643132</v>
-      </c>
-      <c r="C7">
-        <v>2.2273939120037815e-14</v>
-      </c>
-      <c r="D7">
-        <v>0.88558421878639859</v>
-      </c>
-      <c r="E7">
-        <v>0.0097817797027423565</v>
-      </c>
-      <c r="F7">
-        <v>0.028204980102384151</v>
-      </c>
-      <c r="G7">
-        <v>0.0004555154018855707</v>
-      </c>
-      <c r="H7">
-        <v>0.00050661438825722971</v>
-      </c>
-      <c r="I7">
-        <v>0.0046665185831253298</v>
-      </c>
-      <c r="J7">
-        <v>6.395911654126564e-05</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.077301541610497765</v>
-      </c>
-      <c r="C8">
-        <v>2.237810278798094e-14</v>
-      </c>
-      <c r="D8">
-        <v>0.82079184670805738</v>
-      </c>
-      <c r="E8">
-        <v>0.06757499159315479</v>
-      </c>
-      <c r="F8">
-        <v>0.029799089161628312</v>
-      </c>
-      <c r="G8">
-        <v>0.00093830771516501519</v>
-      </c>
-      <c r="H8">
-        <v>0.00026714183865986983</v>
-      </c>
-      <c r="I8">
-        <v>0.002998494003329659</v>
-      </c>
-      <c r="J8">
-        <v>0.00032858736948480541</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.12531001926945337</v>
+        <v>0.052156571215664645</v>
       </c>
       <c r="C9">
-        <v>2.2373286697717849e-14</v>
+        <v>2.2704804241952169e-14</v>
       </c>
       <c r="D9">
-        <v>0.62652241726334645</v>
+        <v>0.59220231327715644</v>
       </c>
       <c r="E9">
-        <v>0.1973510010904205</v>
+        <v>0.33195782797813334</v>
       </c>
       <c r="F9">
-        <v>0.038189092909193131</v>
+        <v>0.020328763155046396</v>
       </c>
       <c r="G9">
-        <v>0.0063471581108102658</v>
+        <v>0.00056941817762847836</v>
       </c>
       <c r="H9">
-        <v>0.00013256290356155432</v>
+        <v>0.00011968933076319369</v>
       </c>
       <c r="I9">
-        <v>0.0055409257197105363</v>
+        <v>0.002074091353134334</v>
       </c>
       <c r="J9">
-        <v>0.00060682273348177111</v>
+        <v>0.00059132551245039448</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.063980208601468525</v>
+        <v>0.11607078855797426</v>
       </c>
       <c r="C10">
-        <v>2.2331609558662832e-14</v>
+        <v>2.2315824043053397e-14</v>
       </c>
       <c r="D10">
-        <v>0.8501439177558332</v>
+        <v>0.76673055324790274</v>
       </c>
       <c r="E10">
-        <v>0.043046026956471126</v>
+        <v>0.025739041693142641</v>
       </c>
       <c r="F10">
-        <v>0.038483412633840787</v>
+        <v>0.050490043753592485</v>
       </c>
       <c r="G10">
-        <v>0.00046691561248993815</v>
+        <v>0.0016343643841739389</v>
       </c>
       <c r="H10">
-        <v>0.00010586647918928883</v>
+        <v>0.0012588042714795379</v>
       </c>
       <c r="I10">
-        <v>0.0034587374282412623</v>
+        <v>0.037473006219387511</v>
       </c>
       <c r="J10">
-        <v>0.00031491453244335282</v>
+        <v>0.00060339787232453214</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.066395731512308126</v>
+        <v>0.064328719447824215</v>
       </c>
       <c r="C11">
-        <v>2.2385175422867889e-14</v>
+        <v>2.2542563818538386e-14</v>
       </c>
       <c r="D11">
-        <v>0.59956451179361825</v>
+        <v>0.70930391254757252</v>
       </c>
       <c r="E11">
-        <v>0.25359290862683231</v>
+        <v>0.19683100026369457</v>
       </c>
       <c r="F11">
-        <v>0.068460068016551912</v>
+        <v>0.026787038642865291</v>
       </c>
       <c r="G11">
-        <v>0.0031959781046828803</v>
+        <v>0.00077422460630426602</v>
       </c>
       <c r="H11">
-        <v>0.00017521812785317763</v>
+        <v>0.0001843108654370962</v>
       </c>
       <c r="I11">
-        <v>0.008158398429993257</v>
+        <v>0.001518239548346457</v>
       </c>
       <c r="J11">
-        <v>0.00045718538813768793</v>
+        <v>0.00027255407793318106</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.18075935046527991</v>
+        <v>0.099604962341217046</v>
       </c>
       <c r="C12">
-        <v>0.09156101225395398</v>
+        <v>2.2354525937828701e-14</v>
       </c>
       <c r="D12">
-        <v>0.020761712162923104</v>
+        <v>0.82792033302601431</v>
       </c>
       <c r="E12">
-        <v>0.00635004597218582</v>
+        <v>0.039519578182170279</v>
       </c>
       <c r="F12">
-        <v>0.059159149566322553</v>
+        <v>0.023080011440364305</v>
       </c>
       <c r="G12">
-        <v>0.61674729257922756</v>
+        <v>0.00034420132209394264</v>
       </c>
       <c r="H12">
-        <v>0.0057851675621516802</v>
+        <v>4.0801343131718763e-05</v>
       </c>
       <c r="I12">
-        <v>0.012915390488822669</v>
+        <v>0.0091805941446873093</v>
       </c>
       <c r="J12">
-        <v>0.0059608789491329304</v>
+        <v>0.0003095182002988559</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
